--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ss002207\TAAHORE2$\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3E06325-B598-4952-BCD2-745D59A51196}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,16 +12,16 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -414,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,8 +500,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,20 +802,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -829,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -837,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -845,7 +839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -853,12 +847,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -866,7 +860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -874,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -884,7 +878,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -894,26 +888,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -939,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="42">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -965,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="56">
       <c r="A3">
         <v>2</v>
       </c>
@@ -991,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="42">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1017,7 +1011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1069,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="42">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="70">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1133,31 +1127,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="56">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="42">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1230,7 +1224,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="8">
         <v>1.2</v>
       </c>
@@ -1262,7 +1256,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28">
       <c r="A4" s="8" t="s">
         <v>114</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="56">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -1326,7 +1320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="42">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28">
       <c r="A9" s="8" t="s">
         <v>118</v>
       </c>
@@ -1472,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -1489,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="42">
       <c r="A11" s="8">
         <v>1.7</v>
       </c>
@@ -1521,7 +1515,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="42">
       <c r="A12" s="8">
         <v>1.8</v>
       </c>
@@ -1550,13 +1544,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="2">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42">
       <c r="A13" s="8">
         <v>1.9</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28">
       <c r="A14" s="8" t="s">
         <v>99</v>
       </c>
@@ -1616,11 +1613,14 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="56">
       <c r="A16" s="8" t="s">
         <v>84</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
         <v>87</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
         <v>100</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="56">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="28">
       <c r="A20" s="8" t="s">
         <v>106</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
         <v>110</v>
       </c>
@@ -1844,18 +1844,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="I22" s="2">
         <f>SUM(I2:I21)</f>
         <v>65</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ref="J22:K22" si="0">SUM(J2:J21)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1870,21 +1870,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1898,32 +1898,88 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>42262</v>
+        <v>43591</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>42263</v>
+        <v>43593</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>43595</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>43598</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43600</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43601</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/4 FS 2019 Module/SoED/project GIT/ch.bfh.bti7081.s2019.white/doc/task06/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920E41B-6CB4-EB41-BB64-4E5D0D9A70B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,23 +18,23 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -216,9 +222,6 @@
     <t>Effort Actual  [h]</t>
   </si>
   <si>
-    <t>Logik in der Calendar Klasse implementieren, damit auf HomeView Kalendereintrag anzezeigt werden kann.</t>
-  </si>
-  <si>
     <t>MainView, MainPresenter, MainModel</t>
   </si>
   <si>
@@ -339,9 +342,6 @@
     <t>1.15</t>
   </si>
   <si>
-    <t>in review</t>
-  </si>
-  <si>
     <t>MainView mit 5 Buttons läuft, mit MainPresenter verbunden, Container für Views. Navigation lädt einzelne Views (Home, Settings, Mood, Calendar, Tips). MVP für Settings POC (proof of concept).</t>
   </si>
   <si>
@@ -399,16 +399,19 @@
     <t>TipList fertig</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>Nach neuem Button-Modell von Yann &amp; SettingsButton als Zahnrad</t>
+  </si>
+  <si>
+    <t>To de done</t>
+  </si>
+  <si>
+    <t>Logik in der Calendar Klasse implementieren, damit auf HomeView Kalendereintrag angezeigt werden kann.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -802,20 +805,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -823,7 +826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -831,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -839,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -847,12 +850,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -860,7 +863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -868,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -888,14 +891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -907,7 +910,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -933,7 +936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="42">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -959,7 +962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="56">
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -985,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42">
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42">
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="70">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1127,14 +1130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
@@ -1151,7 +1154,7 @@
     <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="56">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1197,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -1221,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.2</v>
       </c>
@@ -1232,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -1253,24 +1256,24 @@
         <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -1282,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="56">
+    <row r="5" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -1293,16 +1296,16 @@
         <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
@@ -1317,10 +1320,10 @@
         <v>7</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -1331,16 +1334,16 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>5</v>
@@ -1358,7 +1361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -1372,13 +1375,13 @@
         <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -1396,7 +1399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -1410,13 +1413,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
@@ -1434,27 +1437,27 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
@@ -1463,27 +1466,27 @@
         <v>4</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42">
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1.7</v>
       </c>
@@ -1497,13 +1500,13 @@
         <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -1512,10 +1515,10 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="42">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1.8</v>
       </c>
@@ -1523,19 +1526,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>6</v>
@@ -1550,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1.9</v>
       </c>
@@ -1561,19 +1564,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -1582,12 +1585,12 @@
         <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1599,13 +1602,13 @@
         <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>5</v>
@@ -1617,12 +1620,12 @@
         <v>5</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1631,16 +1634,16 @@
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
@@ -1658,24 +1661,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="56">
+    <row r="16" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
@@ -1687,9 +1690,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1698,16 +1701,16 @@
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>6</v>
@@ -1719,24 +1722,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>6</v>
@@ -1748,27 +1751,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="56">
+    <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>6</v>
@@ -1780,30 +1783,30 @@
         <v>4</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>6</v>
@@ -1812,30 +1815,30 @@
         <v>2</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="8" t="s">
+      <c r="D21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>7</v>
@@ -1843,8 +1846,11 @@
       <c r="I21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I22" s="2">
         <f>SUM(I2:I21)</f>
         <v>65</v>
@@ -1870,21 +1876,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/4 FS 2019 Module/SoED/project GIT/ch.bfh.bti7081.s2019.white/doc/task06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920E41B-6CB4-EB41-BB64-4E5D0D9A70B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C6CDD-6BAA-9B4C-A06F-22B7E905B77F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>Repository erstellen</t>
-  </si>
-  <si>
     <t>1.13</t>
   </si>
   <si>
@@ -406,6 +403,12 @@
   </si>
   <si>
     <t>Logik in der Calendar Klasse implementieren, damit auf HomeView Kalendereintrag angezeigt werden kann.</t>
+  </si>
+  <si>
+    <t>DB Recherche</t>
+  </si>
+  <si>
+    <t>Repository erstellen: DB Anknüpfung</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -499,6 +502,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>62</v>
@@ -1224,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1235,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>79</v>
@@ -1256,21 +1262,21 @@
         <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>79</v>
@@ -1296,7 +1302,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>62</v>
@@ -1317,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="K5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1342,7 +1348,7 @@
       <c r="F6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1358,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1380,7 +1386,7 @@
       <c r="F7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1396,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1418,7 +1424,7 @@
       <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1431,24 +1437,24 @@
         <v>4</v>
       </c>
       <c r="K8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>66</v>
@@ -1457,7 +1463,7 @@
         <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
@@ -1465,22 +1471,34 @@
       <c r="I9" s="2">
         <v>4</v>
       </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
       <c r="L9" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>8</v>
@@ -1514,8 +1532,14 @@
       <c r="I11" s="2">
         <v>4</v>
       </c>
+      <c r="J11" s="2">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
+        <v>12</v>
+      </c>
       <c r="L11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1553,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1564,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1584,13 +1608,16 @@
       <c r="I13" s="2">
         <v>4</v>
       </c>
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
       <c r="L13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1617,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="K14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1658,24 +1685,27 @@
         <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
       <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>80</v>
@@ -1692,7 +1722,7 @@
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1701,7 +1731,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>74</v>
@@ -1710,7 +1740,7 @@
         <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>6</v>
@@ -1718,28 +1748,37 @@
       <c r="I17" s="2">
         <v>4</v>
       </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
       <c r="L17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>6</v>
@@ -1751,27 +1790,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>6</v>
@@ -1779,89 +1815,124 @@
       <c r="I19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="2">
-        <v>4</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2">
         <v>2</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I22" s="2">
-        <f>SUM(I2:I21)</f>
-        <v>65</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" ref="J22:K22" si="0">SUM(J2:J21)</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23" s="2">
+        <f>SUM(I2:I22)</f>
+        <v>73</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ref="J23:K23" si="0">SUM(J2:J22)</f>
+        <v>47</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/4 FS 2019 Module/SoED/project GIT/ch.bfh.bti7081.s2019.white/doc/task06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C6CDD-6BAA-9B4C-A06F-22B7E905B77F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04B627B-CD46-445B-B4C3-FDF875977C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,14 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -409,13 +411,43 @@
   </si>
   <si>
     <t>Repository erstellen: DB Anknüpfung</t>
+  </si>
+  <si>
+    <t>Refactoring MainView</t>
+  </si>
+  <si>
+    <t>Refactoring HomeView</t>
+  </si>
+  <si>
+    <t>Refactoring SettingsView</t>
+  </si>
+  <si>
+    <t>Refactoring MoodView</t>
+  </si>
+  <si>
+    <t>Refactoring CalendarView</t>
+  </si>
+  <si>
+    <t>Refactoring TipsView</t>
+  </si>
+  <si>
+    <t>HomeView == MoodView1</t>
+  </si>
+  <si>
+    <t>HomeView mit 2 Containern: MoodView1 Container mit Slider, CalenderEntry Container. HomeView Slider --&gt; MoodView 2. Mood-Button --&gt; Mood1 == HomeView ohne Calendar</t>
+  </si>
+  <si>
+    <t>Klassendiagramm bzgl. Persistenz updaten</t>
+  </si>
+  <si>
+    <t>Ursprüngliches gemeinsames ObserverInterface auflösen und viewspezifisches Interface definieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,15 +463,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,11 +483,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -473,11 +493,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -501,15 +520,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,13 +830,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -840,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -848,7 +860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -856,12 +868,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -869,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -877,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -904,19 +916,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -942,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -968,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1137,30 +1149,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="10.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1.2</v>
       </c>
@@ -1265,7 +1279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>111</v>
       </c>
@@ -1291,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -1348,7 +1362,7 @@
       <c r="F6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1367,7 +1381,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -1386,7 +1400,7 @@
       <c r="F7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1405,7 +1419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -1424,7 +1438,7 @@
       <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1443,7 +1457,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>115</v>
       </c>
@@ -1478,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>118</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>1.7</v>
       </c>
@@ -1542,7 +1556,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1.8</v>
       </c>
@@ -1580,7 +1594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>1.9</v>
       </c>
@@ -1615,7 +1629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>97</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -1669,7 +1683,7 @@
       <c r="F15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1688,7 +1702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>83</v>
       </c>
@@ -1720,12 +1734,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>55</v>
@@ -1743,7 +1757,7 @@
         <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2">
         <v>4</v>
@@ -1758,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
@@ -1781,7 +1795,7 @@
         <v>99</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
         <v>4</v>
@@ -1790,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>98</v>
       </c>
@@ -1810,16 +1824,16 @@
         <v>82</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
         <v>6</v>
       </c>
-      <c r="I19" s="2">
-        <v>4</v>
-      </c>
       <c r="L19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>100</v>
       </c>
@@ -1842,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
         <v>4</v>
@@ -1851,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>103</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>107</v>
       </c>
@@ -1921,21 +1935,213 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I23" s="2">
-        <f>SUM(I2:I22)</f>
-        <v>73</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" ref="J23:K23" si="0">SUM(J2:J22)</f>
-        <v>47</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L30" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1954,14 +2160,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1975,7 +2181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1989,7 +2195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2003,7 +2209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2017,7 +2223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2031,7 +2237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2045,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04B627B-CD46-445B-B4C3-FDF875977C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD10A36-1D2F-48A6-93DA-2F62ACAF7DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>Ursprüngliches gemeinsames ObserverInterface auflösen und viewspezifisches Interface definieren</t>
+  </si>
+  <si>
+    <t>ongoing</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1829,8 +1832,11 @@
       <c r="I19" s="2">
         <v>6</v>
       </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
       <c r="L19" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -2061,6 +2067,9 @@
       <c r="I27" s="2">
         <v>2</v>
       </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>8</v>
       </c>
@@ -2087,8 +2096,11 @@
       <c r="I28" s="2">
         <v>2</v>
       </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
       <c r="L28" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD10A36-1D2F-48A6-93DA-2F62ACAF7DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E490F1-6DAF-4520-B6D9-C9BB82464ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1156,8 +1156,8 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E490F1-6DAF-4520-B6D9-C9BB82464ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFC517-E872-4080-A2AD-6ECD64AD83C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>ongoing</t>
+  </si>
+  <si>
+    <t>DB-Design</t>
+  </si>
+  <si>
+    <t>DB designen und alle Tabellen kreieren</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1159,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>8</v>
@@ -1521,12 +1527,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>1.7</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -1553,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>106</v>
@@ -1766,13 +1772,13 @@
         <v>4</v>
       </c>
       <c r="J17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1803,8 +1809,11 @@
       <c r="I18" s="2">
         <v>4</v>
       </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1963,8 +1972,11 @@
       <c r="I23" s="2">
         <v>2</v>
       </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
       <c r="L23" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -2041,6 +2053,9 @@
       <c r="I26" s="2">
         <v>2</v>
       </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
       <c r="L26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2143,6 +2158,32 @@
         <v>2</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E490F1-6DAF-4520-B6D9-C9BB82464ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5EA9F-2F69-4AE7-9E86-871E0BFD971A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>ongoing</t>
+  </si>
+  <si>
+    <t>DB-Design</t>
+  </si>
+  <si>
+    <t>DB designen und alle Tabellen kreieren</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1159,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>8</v>
@@ -1521,12 +1527,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>1.7</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -1553,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>106</v>
@@ -1766,13 +1772,13 @@
         <v>4</v>
       </c>
       <c r="J17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1803,8 +1809,11 @@
       <c r="I18" s="2">
         <v>4</v>
       </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1963,8 +1972,11 @@
       <c r="I23" s="2">
         <v>2</v>
       </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
       <c r="L23" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -2041,6 +2053,9 @@
       <c r="I26" s="2">
         <v>2</v>
       </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
       <c r="L26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2143,6 +2158,32 @@
         <v>2</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\IntelliJ\Projects\intelliJgit\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFC517-E872-4080-A2AD-6ECD64AD83C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB32A1-0EE3-4701-A352-F5ADE1493524}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -287,15 +287,9 @@
     <t>Marco</t>
   </si>
   <si>
-    <t>1.12</t>
-  </si>
-  <si>
     <t>Repository</t>
   </si>
   <si>
-    <t>1.13</t>
-  </si>
-  <si>
     <t>Repository anbinden</t>
   </si>
   <si>
@@ -332,15 +326,9 @@
     <t>1.10</t>
   </si>
   <si>
-    <t>1.14</t>
-  </si>
-  <si>
     <t>Nico</t>
   </si>
   <si>
-    <t>1.15</t>
-  </si>
-  <si>
     <t>MainView mit 5 Buttons läuft, mit MainPresenter verbunden, Container für Views. Navigation lädt einzelne Views (Home, Settings, Mood, Calendar, Tips). MVP für Settings POC (proof of concept).</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>TipView</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
     <t>Server Update function</t>
   </si>
   <si>
@@ -383,18 +368,12 @@
     <t>Server lädt automatisch GIT-Master herunter und deployt diesen</t>
   </si>
   <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
     <t>TipFiltering</t>
   </si>
   <si>
     <t>Add TipFilter Logic</t>
   </si>
   <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
     <t>TipList fertig</t>
   </si>
   <si>
@@ -450,6 +429,153 @@
   </si>
   <si>
     <t>DB designen und alle Tabellen kreieren</t>
+  </si>
+  <si>
+    <t>in review</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Calendar Repository anbinden</t>
+  </si>
+  <si>
+    <t>Calendar Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>Mood Repository anbinden</t>
+  </si>
+  <si>
+    <t>Mood Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>Tip Repository anbinden</t>
+  </si>
+  <si>
+    <t>Tip Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>Settings Repository anbinden</t>
+  </si>
+  <si>
+    <t>Settings Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>CalendarModel, CalendarEntry, CalendarRepository, DB</t>
+  </si>
+  <si>
+    <t>MoodModel, Mood, MoodRepository, DB</t>
+  </si>
+  <si>
+    <t>TipModel, Tip, TipRepository, DB</t>
+  </si>
+  <si>
+    <t>SettingsModel, Settings, SettingsRepository, DB</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Repository-DB Abfragen updaten</t>
+  </si>
+  <si>
+    <t>betroffene Repositories, DB</t>
+  </si>
+  <si>
+    <t>bei Änderungen --&gt; jeweiliges Repository updaten</t>
+  </si>
+  <si>
+    <t>Design optimieren</t>
+  </si>
+  <si>
+    <t>Design responsive machen und generell verschönern</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>alle Views</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>SpotBucks</t>
+  </si>
+  <si>
+    <t>SpotBucks Recherche</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>SpotBucks implementieren</t>
+  </si>
+  <si>
+    <t>SpotBucks Tests implementieren</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
 </sst>
 </file>
@@ -839,13 +965,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -853,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -861,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -869,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -877,12 +1003,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -890,7 +1016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -898,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -925,19 +1051,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -989,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1015,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1041,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1067,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1093,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1119,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1159,31 +1285,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="2"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1229,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>62</v>
@@ -1253,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.2</v>
       </c>
@@ -1264,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>79</v>
@@ -1285,21 +1411,21 @@
         <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>79</v>
@@ -1314,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -1325,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>62</v>
@@ -1349,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -1387,10 +1513,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -1425,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -1463,47 +1589,44 @@
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1512,60 +1635,57 @@
         <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="I10" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1.8</v>
       </c>
@@ -1600,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1.9</v>
       </c>
@@ -1611,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1635,12 +1755,12 @@
         <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1670,10 +1790,10 @@
         <v>6</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -1708,193 +1828,187 @@
         <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
         <v>4</v>
       </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
       <c r="L20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>79</v>
@@ -1912,24 +2026,24 @@
         <v>2</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>80</v>
@@ -1947,232 +2061,295 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2">
+        <v>16</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="K25" s="2">
         <v>2</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="B30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>80</v>
@@ -2187,16 +2364,269 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2">
+        <v>10</v>
+      </c>
+      <c r="K39" s="2">
+        <v>6</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L30" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
+  <autoFilter ref="A1:L39" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L39">
+      <sortCondition ref="A1:A39"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2213,14 +2643,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -2234,7 +2664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2248,7 +2678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2262,7 +2692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2276,7 +2706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2290,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2304,7 +2734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrkun\MagentaCLOUD\Weiterbildung\BFH Informatik\4. Semester\Softwareengineering and Design\ch.bfh.bti7081.s2019.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\IntelliJ\Projects\intelliJgit\ch.bfh.bti7081.s2019.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5EA9F-2F69-4AE7-9E86-871E0BFD971A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB32A1-0EE3-4701-A352-F5ADE1493524}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="24680" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -287,15 +287,9 @@
     <t>Marco</t>
   </si>
   <si>
-    <t>1.12</t>
-  </si>
-  <si>
     <t>Repository</t>
   </si>
   <si>
-    <t>1.13</t>
-  </si>
-  <si>
     <t>Repository anbinden</t>
   </si>
   <si>
@@ -332,15 +326,9 @@
     <t>1.10</t>
   </si>
   <si>
-    <t>1.14</t>
-  </si>
-  <si>
     <t>Nico</t>
   </si>
   <si>
-    <t>1.15</t>
-  </si>
-  <si>
     <t>MainView mit 5 Buttons läuft, mit MainPresenter verbunden, Container für Views. Navigation lädt einzelne Views (Home, Settings, Mood, Calendar, Tips). MVP für Settings POC (proof of concept).</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>TipView</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
     <t>Server Update function</t>
   </si>
   <si>
@@ -383,18 +368,12 @@
     <t>Server lädt automatisch GIT-Master herunter und deployt diesen</t>
   </si>
   <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
     <t>TipFiltering</t>
   </si>
   <si>
     <t>Add TipFilter Logic</t>
   </si>
   <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
     <t>TipList fertig</t>
   </si>
   <si>
@@ -450,6 +429,153 @@
   </si>
   <si>
     <t>DB designen und alle Tabellen kreieren</t>
+  </si>
+  <si>
+    <t>in review</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Calendar Repository anbinden</t>
+  </si>
+  <si>
+    <t>Calendar Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>Mood Repository anbinden</t>
+  </si>
+  <si>
+    <t>Mood Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>Tip Repository anbinden</t>
+  </si>
+  <si>
+    <t>Tip Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>Settings Repository anbinden</t>
+  </si>
+  <si>
+    <t>Settings Funktionalität an Repository anbinden, damit Verbindung zu DB besteht</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>CalendarModel, CalendarEntry, CalendarRepository, DB</t>
+  </si>
+  <si>
+    <t>MoodModel, Mood, MoodRepository, DB</t>
+  </si>
+  <si>
+    <t>TipModel, Tip, TipRepository, DB</t>
+  </si>
+  <si>
+    <t>SettingsModel, Settings, SettingsRepository, DB</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Repository-DB Abfragen updaten</t>
+  </si>
+  <si>
+    <t>betroffene Repositories, DB</t>
+  </si>
+  <si>
+    <t>bei Änderungen --&gt; jeweiliges Repository updaten</t>
+  </si>
+  <si>
+    <t>Design optimieren</t>
+  </si>
+  <si>
+    <t>Design responsive machen und generell verschönern</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>alle Views</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>SpotBucks</t>
+  </si>
+  <si>
+    <t>SpotBucks Recherche</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>SpotBucks implementieren</t>
+  </si>
+  <si>
+    <t>SpotBucks Tests implementieren</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
 </sst>
 </file>
@@ -839,13 +965,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -853,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -861,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -869,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -877,12 +1003,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -890,7 +1016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -898,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -925,19 +1051,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -989,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1015,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1041,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1067,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1093,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1119,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1159,31 +1285,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="2"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1229,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>62</v>
@@ -1253,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.2</v>
       </c>
@@ -1264,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>79</v>
@@ -1285,21 +1411,21 @@
         <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>79</v>
@@ -1314,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -1325,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>62</v>
@@ -1349,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -1387,10 +1513,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -1425,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -1463,47 +1589,44 @@
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1512,60 +1635,57 @@
         <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="I10" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1.8</v>
       </c>
@@ -1600,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1.9</v>
       </c>
@@ -1611,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1635,12 +1755,12 @@
         <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1670,10 +1790,10 @@
         <v>6</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -1708,193 +1828,187 @@
         <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
         <v>4</v>
       </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
       <c r="L20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>79</v>
@@ -1912,24 +2026,24 @@
         <v>2</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>80</v>
@@ -1947,232 +2061,295 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2">
+        <v>16</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="K25" s="2">
         <v>2</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="B30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>80</v>
@@ -2187,16 +2364,269 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2">
+        <v>10</v>
+      </c>
+      <c r="K39" s="2">
+        <v>6</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L30" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
+  <autoFilter ref="A1:L39" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L39">
+      <sortCondition ref="A1:A39"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2213,14 +2643,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -2234,7 +2664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2248,7 +2678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2262,7 +2692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2276,7 +2706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2290,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2304,7 +2734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>

--- a/doc/task06/Scrum_Team_White_V5.xlsx
+++ b/doc/task06/Scrum_Team_White_V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\IntelliJ\Projects\intelliJgit\ch.bfh.bti7081.s2019.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/4 FS 2019 Module/SoED/project GIT/ch.bfh.bti7081.s2019.white/doc/task06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB32A1-0EE3-4701-A352-F5ADE1493524}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE6DF9E-F544-0D4F-B453-5B09A2E48E24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="24660" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint Backlog'!$A$1:$L$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -576,6 +576,63 @@
   </si>
   <si>
     <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Versionsnummer heraufsetzen</t>
+  </si>
+  <si>
+    <t>Set Version to 1.0 (NOT SNAPSHOT!)</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>Unit tests</t>
+  </si>
+  <si>
+    <t>Write unit tests</t>
+  </si>
+  <si>
+    <t>alle neuen Klassen</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">screencast, </t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>Hauptverantwortlicher</t>
+  </si>
+  <si>
+    <t>Contribution list erstellen</t>
+  </si>
+  <si>
+    <t>Code &amp; Architectural highlights: Textfile erstellen</t>
+  </si>
+  <si>
+    <t>Lessons learned: Textfile erstellen</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
   </si>
 </sst>
 </file>
@@ -965,13 +1022,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -979,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -987,7 +1044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -995,7 +1052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1003,12 +1060,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1051,19 +1108,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1115,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1141,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1167,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1193,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1219,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1245,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1285,31 +1342,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1382,7 +1439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.2</v>
       </c>
@@ -1414,7 +1471,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>132</v>
       </c>
@@ -1440,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -1478,7 +1535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -1516,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -1554,7 +1611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -1592,7 +1649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>141</v>
       </c>
@@ -1624,7 +1681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>142</v>
       </c>
@@ -1656,7 +1713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>143</v>
       </c>
@@ -1685,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1.8</v>
       </c>
@@ -1723,7 +1780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1.9</v>
       </c>
@@ -1758,7 +1815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
@@ -1793,7 +1850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -1831,7 +1888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>144</v>
       </c>
@@ -1863,7 +1920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>145</v>
       </c>
@@ -1895,7 +1952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>146</v>
       </c>
@@ -1927,7 +1984,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>147</v>
       </c>
@@ -1959,7 +2016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>133</v>
       </c>
@@ -1994,7 +2051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>99</v>
       </c>
@@ -2029,7 +2086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>103</v>
       </c>
@@ -2064,7 +2121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>134</v>
       </c>
@@ -2093,7 +2150,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>135</v>
       </c>
@@ -2131,7 +2188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>136</v>
       </c>
@@ -2166,7 +2223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>137</v>
       </c>
@@ -2204,7 +2261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>138</v>
       </c>
@@ -2239,7 +2296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>139</v>
       </c>
@@ -2271,7 +2328,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>140</v>
       </c>
@@ -2303,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>148</v>
       </c>
@@ -2328,11 +2385,17 @@
       <c r="I30" s="2">
         <v>4</v>
       </c>
+      <c r="J30" s="2">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3</v>
+      </c>
       <c r="L30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>157</v>
       </c>
@@ -2364,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>158</v>
       </c>
@@ -2392,11 +2455,14 @@
       <c r="I32" s="2">
         <v>4</v>
       </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
       <c r="L32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>159</v>
       </c>
@@ -2424,11 +2490,14 @@
       <c r="I33" s="2">
         <v>4</v>
       </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
       <c r="L33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>160</v>
       </c>
@@ -2456,11 +2525,17 @@
       <c r="I34" s="2">
         <v>4</v>
       </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.5</v>
+      </c>
       <c r="L34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>165</v>
       </c>
@@ -2488,11 +2563,17 @@
       <c r="I35" s="2">
         <v>4</v>
       </c>
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
       <c r="L35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>171</v>
       </c>
@@ -2520,11 +2601,14 @@
       <c r="I36" s="2">
         <v>4</v>
       </c>
+      <c r="J36" s="2">
+        <v>6</v>
+      </c>
       <c r="L36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>173</v>
       </c>
@@ -2546,11 +2630,14 @@
       <c r="I37" s="2">
         <v>2</v>
       </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
       <c r="L37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>176</v>
       </c>
@@ -2575,11 +2662,14 @@
       <c r="I38" s="2">
         <v>4</v>
       </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
       <c r="L38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>179</v>
       </c>
@@ -2614,11 +2704,145 @@
         <v>128</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
+  <autoFilter ref="A1:L40" xr:uid="{C2711728-F763-41C5-8F51-14446DF19FAB}">
     <filterColumn colId="1">
       <filters>
         <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="ongoing"/>
+        <filter val="waiting"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L39">
@@ -2643,14 +2867,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2678,7 +2901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2692,7 +2915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2706,7 +2929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2720,7 +2943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2734,7 +2957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
